--- a/StructureDefinition-ext-R5-Specimen.collection.xlsx
+++ b/StructureDefinition-ext-R5-Specimen.collection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -404,7 +404,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -518,7 +518,7 @@
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -557,15 +557,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The  technique that is used to perform the procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-specimen-collection-method-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:device</t>
   </si>
   <si>
@@ -648,8 +639,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:device.extension:concept.id</t>
@@ -676,8 +666,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:device.extension:reference.id</t>
@@ -692,7 +681,7 @@
     <t>Extension.extension:device.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
   <si>
@@ -741,7 +730,7 @@
     <t>Extension.extension:procedure.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure)
 </t>
   </si>
   <si>
@@ -803,7 +792,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-body-site-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-body-site-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:reference</t>
@@ -821,7 +810,7 @@
     <t>Extension.extension:bodySite.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|0.0.1-snapshot-3|BodyStructure|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|BodyStructure)
 </t>
   </si>
   <si>
@@ -872,15 +861,6 @@
   <si>
     <t>CodeableConcept
 Duration</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes describing the fasting status of the patient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-v2-0916-for-R4</t>
   </si>
 </sst>
 </file>
@@ -1230,8 +1210,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.15234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4239,13 +4219,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4283,13 +4263,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4314,14 +4294,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>162</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4390,7 +4370,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4493,7 +4473,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4596,13 +4576,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4627,10 +4607,10 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4701,10 +4681,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4804,10 +4784,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4909,10 +4889,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4952,7 +4932,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5014,10 +4994,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5043,13 +5023,13 @@
         <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5057,7 +5037,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>77</v>
@@ -5119,13 +5099,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5150,14 +5130,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5226,10 +5206,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5329,10 +5309,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5434,10 +5414,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5477,7 +5457,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5539,10 +5519,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5568,10 +5548,10 @@
         <v>169</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5642,13 +5622,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5673,14 +5653,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5749,10 +5729,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5852,10 +5832,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5957,10 +5937,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6000,7 +5980,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6062,10 +6042,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6088,13 +6068,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6165,7 +6145,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6208,7 +6188,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6270,7 +6250,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6296,13 +6276,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6373,13 +6353,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6404,14 +6384,14 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6480,7 +6460,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -6583,7 +6563,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -6688,7 +6668,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6731,7 +6711,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6793,7 +6773,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6819,13 +6799,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6896,13 +6876,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6927,16 +6907,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7005,7 +6985,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7108,7 +7088,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7211,13 +7191,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7242,10 +7222,10 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7316,10 +7296,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7419,10 +7399,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7524,10 +7504,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7567,7 +7547,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7629,10 +7609,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7658,13 +7638,13 @@
         <v>87</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -7672,7 +7652,7 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>77</v>
@@ -7734,13 +7714,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -7765,14 +7745,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -7841,10 +7821,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7944,10 +7924,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8049,10 +8029,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8092,7 +8072,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8154,10 +8134,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8183,10 +8163,10 @@
         <v>169</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8213,11 +8193,11 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -8255,13 +8235,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8286,14 +8266,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8362,10 +8342,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8465,10 +8445,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8570,10 +8550,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8613,7 +8593,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8675,10 +8655,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8701,13 +8681,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -8778,7 +8758,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -8821,7 +8801,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -8883,7 +8863,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -8909,13 +8889,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -8986,13 +8966,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9017,16 +8997,16 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O75" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9095,7 +9075,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -9198,7 +9178,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -9303,7 +9283,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -9346,7 +9326,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9408,7 +9388,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>122</v>
@@ -9434,16 +9414,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -9469,13 +9449,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -9644,13 +9624,13 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
